--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -1,52 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Our Fam\PycharmProjects\pythonProject1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25508E8-0144-4551-BE2A-2B9ABBD3B376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00229633-1B64-487E-AD83-E02E92D734ED}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,26 +47,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -379,13 +420,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E5F92B-E2DA-41C1-823E-A0887D697FCE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -8,6 +8,11 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -453,4 +458,94 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Our Fam\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62452FB7-3BF1-4669-A1EA-F61DEF053F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0A882-2AFC-4436-8E36-CA56F99FA5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Vocab</t>
   </si>
@@ -60,13 +60,105 @@
   </si>
   <si>
     <t>chúc mừng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lane
+</t>
+  </si>
+  <si>
+    <t>làn đường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basketball
+</t>
+  </si>
+  <si>
+    <t>bóng rổ</t>
+  </si>
+  <si>
+    <t>Christmas Tree</t>
+  </si>
+  <si>
+    <t>Cây thông noel</t>
+  </si>
+  <si>
+    <t>Santa Clause</t>
+  </si>
+  <si>
+    <t>Ông già noel</t>
+  </si>
+  <si>
+    <t>Sleigh</t>
+  </si>
+  <si>
+    <t>Xe kéo của ông già noel</t>
+  </si>
+  <si>
+    <t>Reindeer</t>
+  </si>
+  <si>
+    <t>Tuần lộc</t>
+  </si>
+  <si>
+    <t>Sack</t>
+  </si>
+  <si>
+    <t>Túi quà của ông già Noel</t>
+  </si>
+  <si>
+    <t>Wreath</t>
+  </si>
+  <si>
+    <t>vòng hoa noel</t>
+  </si>
+  <si>
+    <t>Christmas card</t>
+  </si>
+  <si>
+    <t>Thiệp giáng sinh</t>
+  </si>
+  <si>
+    <t>Snowman</t>
+  </si>
+  <si>
+    <t>Người tuyết</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Chuông</t>
+  </si>
+  <si>
+    <t>Ornament</t>
+  </si>
+  <si>
+    <t>Đồ trang trí cây thông</t>
+  </si>
+  <si>
+    <t>Yule log</t>
+  </si>
+  <si>
+    <t>Bánh kem hình khúc cây</t>
+  </si>
+  <si>
+    <t>Bauble</t>
+  </si>
+  <si>
+    <t>Quả châu</t>
+  </si>
+  <si>
+    <t>Carol </t>
+  </si>
+  <si>
+    <t>Bài hát được hát vào giáng sinh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +174,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,14 +218,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,20 +560,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE4A065-7D94-4C03-9D77-19FDEFEB1F2A}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,43 +582,163 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -7,22 +7,16 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_new5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -30,16 +24,57 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -47,12 +82,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,122 +486,264 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="13.75" customWidth="1" style="1" min="1" max="1"/>
+    <col width="19.125" customWidth="1" style="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Vocab</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Meaning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>mới</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mistletoe
+</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>cây tầm gửi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bonjour
+</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>xin chào</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gelato
+</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>kem</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">congrats
+</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>chúc mừng</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Santa Clause</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Ông già noel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Sleigh</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Xe kéo của ông già noel</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Reindeer</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Tuần lộc</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Sack</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Túi quà của ông già Noel</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Wreath</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>vòng hoa noel</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Christmas card</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Thiệp giáng sinh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Snowman</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Người tuyết</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Bell</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Chuông</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Ornament</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Đồ trang trí cây thông</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Yule log</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Bánh kem hình khúc cây</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Bauble</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Quả châu</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carol </t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Bài hát được hát vào giáng sinh</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>xin chào</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>xin chào</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -50,6 +50,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
@@ -101,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -109,6 +117,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +497,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -575,170 +586,206 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Christmas Tree</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Cây thông noel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Santa Clause</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>Ông già noel</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A8" s="3" t="inlineStr">
+    <row r="9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Sleigh</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Xe kéo của ông già noel</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="3" t="inlineStr">
+    <row r="10" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Reindeer</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Tuần lộc</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A10" s="3" t="inlineStr">
+    <row r="11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Sack</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Túi quà của ông già Noel</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="12" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Wreath</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>vòng hoa noel</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A12" s="3" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Christmas card</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Thiệp giáng sinh</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="3" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>Snowman</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>Người tuyết</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="3" t="inlineStr">
+    <row r="15" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Bell</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>Chuông</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A15" s="3" t="inlineStr">
+    <row r="16" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Ornament</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>Đồ trang trí cây thông</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A16" s="3" t="inlineStr">
+    <row r="17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>Yule log</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Bánh kem hình khúc cây</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="3" t="inlineStr">
+    <row r="18" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Bauble</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>Quả châu</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A18" s="3" t="inlineStr">
+    <row r="19" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Carol </t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>Bài hát được hát vào giáng sinh</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>xin chào</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>xin chào</t>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>mới</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mới</t>
         </is>
       </c>
     </row>
